--- a/doc/user-guide/examples/resource/resource-efficiency.xlsx
+++ b/doc/user-guide/examples/resource/resource-efficiency.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\frepple\enterprise\doc\user-guide\examples\resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E5943A8-C8A6-465A-AD0F-F14080F74427}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBB5BFC5-4944-49EC-BBBF-6759C73B08CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="9" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sales order" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="90">
   <si>
     <t>Name</t>
   </si>
@@ -102,12 +102,6 @@
     <t>square table</t>
   </si>
   <si>
-    <t>Demand 03</t>
-  </si>
-  <si>
-    <t>diamond-shape table</t>
-  </si>
-  <si>
     <t>Cost</t>
   </si>
   <si>
@@ -192,13 +186,7 @@
     <t>Duration Per Unit</t>
   </si>
   <si>
-    <t>Assemble diamond-shape table by new machine</t>
-  </si>
-  <si>
     <t>time_per</t>
-  </si>
-  <si>
-    <t>Assemble diamond-shape table by old machine</t>
   </si>
   <si>
     <t>Assemble round table</t>
@@ -680,18 +668,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:O1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.21875" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" customWidth="1"/>
     <col min="3" max="3" width="17.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -772,44 +761,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="2">
-        <v>43744</v>
-      </c>
-      <c r="F4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4">
-        <v>250</v>
-      </c>
-      <c r="H4">
-        <v>10</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:H1048576" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:H1048575" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:L1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -821,10 +784,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>10</v>
@@ -832,10 +795,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -843,39 +806,17 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:C1048576" xr:uid="{00000000-0009-0000-0000-000009000000}"/>
+  <autoFilter ref="A1:C1048574" xr:uid="{00000000-0009-0000-0000-000009000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -884,7 +825,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -900,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -908,142 +849,142 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B6" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C7" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C8" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B9" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C9" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B10" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C10" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B11" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C11" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B12" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C12" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B13" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C13" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B14" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C14" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1054,10 +995,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:M1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1079,109 +1020,101 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
         <v>20</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3">
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>40</v>
+        <v>300</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>26</v>
       </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
-        <v>300</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E7">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8">
         <v>10</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E1048576" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A1:E1048575" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -1206,7 +1139,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1214,7 +1147,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1270,21 +1203,21 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -1292,13 +1225,13 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -1309,13 +1242,13 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -1350,17 +1283,17 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1387,16 +1320,16 @@
         <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>11</v>
@@ -1404,13 +1337,13 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E2">
         <v>3000</v>
@@ -1424,13 +1357,13 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -1441,13 +1374,13 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1464,10 +1397,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:O1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1490,7 +1423,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
@@ -1508,27 +1441,33 @@
         <v>11</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" t="s">
         <v>49</v>
       </c>
-      <c r="B2" t="s">
-        <v>50</v>
+      <c r="D2" t="s">
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
         <v>15</v>
@@ -1539,22 +1478,31 @@
       <c r="H2">
         <v>1</v>
       </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
       <c r="J2">
-        <v>5400</v>
+        <v>7200</v>
       </c>
       <c r="K2">
-        <v>2700</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>47</v>
+      </c>
+      <c r="C3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F3" t="s">
         <v>15</v>
@@ -1565,95 +1513,28 @@
       <c r="H3">
         <v>1</v>
       </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
       <c r="J3">
-        <v>6750</v>
+        <v>7200</v>
       </c>
       <c r="K3">
-        <v>3375</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>7200</v>
-      </c>
-      <c r="K4">
         <v>3600</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
-      <c r="A5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>7200</v>
-      </c>
-      <c r="K5">
-        <v>3600</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:K1048576" xr:uid="{00000000-0009-0000-0000-000007000000}"/>
+  <autoFilter ref="A1:K1048574" xr:uid="{00000000-0009-0000-0000-000007000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:M1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1667,7 +1548,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>6</v>
@@ -1676,15 +1557,15 @@
         <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
@@ -1693,12 +1574,12 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
@@ -1707,207 +1588,95 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C4">
         <v>-1</v>
       </c>
       <c r="E4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C5">
         <v>-1</v>
       </c>
       <c r="E5" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C6">
         <v>-5</v>
       </c>
       <c r="E6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C7">
         <v>-10</v>
       </c>
       <c r="E7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C8">
         <v>-4</v>
       </c>
       <c r="E8" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C9">
         <v>-4</v>
       </c>
       <c r="E9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>49</v>
-      </c>
-      <c r="B10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="E10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>49</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11">
-        <v>-1</v>
-      </c>
-      <c r="E11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12">
-        <v>-10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13">
-        <v>-4</v>
-      </c>
-      <c r="E13" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
-        <v>51</v>
-      </c>
-      <c r="B14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="E14" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" t="s">
-        <v>51</v>
-      </c>
-      <c r="B15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15">
-        <v>-1</v>
-      </c>
-      <c r="E15" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" t="s">
-        <v>51</v>
-      </c>
-      <c r="B16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16">
-        <v>-10</v>
-      </c>
-      <c r="E16" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" t="s">
-        <v>51</v>
-      </c>
-      <c r="B17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17">
-        <v>-4</v>
-      </c>
-      <c r="E17" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E1048576" xr:uid="{00000000-0009-0000-0000-000008000000}"/>
+  <autoFilter ref="A1:E1048568" xr:uid="{00000000-0009-0000-0000-000008000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>